--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_swish.xlsx
@@ -497,16 +497,16 @@
         <v>72.83333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>255.4451141357422</v>
+        <v>249.9066162109375</v>
       </c>
       <c r="G2" t="n">
-        <v>22.61160087585449</v>
+        <v>18.13508605957031</v>
       </c>
       <c r="H2" t="n">
-        <v>-446.3019714355469</v>
+        <v>-426.314208984375</v>
       </c>
       <c r="I2" t="n">
-        <v>43.42462158203125</v>
+        <v>31.15562438964844</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>252.5735626220703</v>
+        <v>244.9034423828125</v>
       </c>
       <c r="G3" t="n">
-        <v>23.56826019287109</v>
+        <v>18.62935638427734</v>
       </c>
       <c r="H3" t="n">
-        <v>-439.27294921875</v>
+        <v>-418.7103271484375</v>
       </c>
       <c r="I3" t="n">
-        <v>45.29312515258789</v>
+        <v>31.90128135681152</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>250.0468292236328</v>
+        <v>240.2174224853516</v>
       </c>
       <c r="G4" t="n">
-        <v>24.87303161621094</v>
+        <v>19.24429893493652</v>
       </c>
       <c r="H4" t="n">
-        <v>-431.7008361816406</v>
+        <v>-410.6592712402344</v>
       </c>
       <c r="I4" t="n">
-        <v>47.18009948730469</v>
+        <v>32.67645645141602</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>65.53333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>247.8717193603516</v>
+        <v>235.8588256835938</v>
       </c>
       <c r="G5" t="n">
-        <v>26.53389358520508</v>
+        <v>19.99260711669922</v>
       </c>
       <c r="H5" t="n">
-        <v>-423.5851745605469</v>
+        <v>-402.1548156738281</v>
       </c>
       <c r="I5" t="n">
-        <v>49.05337905883789</v>
+        <v>33.47665023803711</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>246.0494842529297</v>
+        <v>231.8335723876953</v>
       </c>
       <c r="G6" t="n">
-        <v>28.5484733581543</v>
+        <v>20.88504981994629</v>
       </c>
       <c r="H6" t="n">
-        <v>-414.9245910644531</v>
+        <v>-393.1928405761719</v>
       </c>
       <c r="I6" t="n">
-        <v>50.87723159790039</v>
+        <v>34.29679107666016</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>244.5765533447266</v>
+        <v>228.1439361572266</v>
       </c>
       <c r="G7" t="n">
-        <v>30.90389251708984</v>
+        <v>21.92842292785645</v>
       </c>
       <c r="H7" t="n">
-        <v>-405.7186584472656</v>
+        <v>-383.771484375</v>
       </c>
       <c r="I7" t="n">
-        <v>52.61263656616211</v>
+        <v>35.13187789916992</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>243.4447021484375</v>
+        <v>224.7886962890625</v>
       </c>
       <c r="G8" t="n">
-        <v>33.57810592651367</v>
+        <v>23.12422752380371</v>
       </c>
       <c r="H8" t="n">
-        <v>-395.9679260253906</v>
+        <v>-373.8922424316406</v>
       </c>
       <c r="I8" t="n">
-        <v>54.21855545043945</v>
+        <v>35.97693634033203</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>55.8</v>
       </c>
       <c r="F9" t="n">
-        <v>242.6417236328125</v>
+        <v>221.7635498046875</v>
       </c>
       <c r="G9" t="n">
-        <v>36.54221343994141</v>
+        <v>24.46830177307129</v>
       </c>
       <c r="H9" t="n">
-        <v>-385.6751403808594</v>
+        <v>-363.5606994628906</v>
       </c>
       <c r="I9" t="n">
-        <v>55.65328598022461</v>
+        <v>36.82759475708008</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>242.1521453857422</v>
+        <v>219.0618286132812</v>
       </c>
       <c r="G10" t="n">
-        <v>39.76291656494141</v>
+        <v>25.95137405395508</v>
       </c>
       <c r="H10" t="n">
-        <v>-374.8464050292969</v>
+        <v>-352.7869567871094</v>
       </c>
       <c r="I10" t="n">
-        <v>56.87615203857422</v>
+        <v>37.67976379394531</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>241.9577178955078</v>
+        <v>216.6746368408203</v>
       </c>
       <c r="G11" t="n">
-        <v>43.20461273193359</v>
+        <v>27.5600471496582</v>
       </c>
       <c r="H11" t="n">
-        <v>-363.491943359375</v>
+        <v>-341.5857238769531</v>
       </c>
       <c r="I11" t="n">
-        <v>57.8498420715332</v>
+        <v>38.52991104125977</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>242.038330078125</v>
+        <v>214.5916290283203</v>
       </c>
       <c r="G12" t="n">
-        <v>46.8310661315918</v>
+        <v>29.27800559997559</v>
       </c>
       <c r="H12" t="n">
-        <v>-351.6271667480469</v>
+        <v>-329.97705078125</v>
       </c>
       <c r="I12" t="n">
-        <v>58.54232788085938</v>
+        <v>39.3746337890625</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +816,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>242.3723907470703</v>
+        <v>212.801025390625</v>
       </c>
       <c r="G13" t="n">
-        <v>50.60677719116211</v>
+        <v>31.08731460571289</v>
       </c>
       <c r="H13" t="n">
-        <v>-339.2740173339844</v>
+        <v>-317.9857788085938</v>
       </c>
       <c r="I13" t="n">
-        <v>58.92880630493164</v>
+        <v>40.21033477783203</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>242.9376068115234</v>
+        <v>211.290283203125</v>
       </c>
       <c r="G14" t="n">
-        <v>54.49782943725586</v>
+        <v>32.96934127807617</v>
       </c>
       <c r="H14" t="n">
-        <v>-326.4618530273438</v>
+        <v>-305.6419982910156</v>
       </c>
       <c r="I14" t="n">
-        <v>58.99361419677734</v>
+        <v>41.032958984375</v>
       </c>
     </row>
     <row r="15">
@@ -874,16 +874,16 @@
         <v>41.2</v>
       </c>
       <c r="F15" t="n">
-        <v>243.7111206054688</v>
+        <v>210.0461883544922</v>
       </c>
       <c r="G15" t="n">
-        <v>58.47250747680664</v>
+        <v>34.90576934814453</v>
       </c>
       <c r="H15" t="n">
-        <v>-313.2279357910156</v>
+        <v>-292.9800720214844</v>
       </c>
       <c r="I15" t="n">
-        <v>58.73114013671875</v>
+        <v>41.83759689331055</v>
       </c>
     </row>
     <row r="16">
@@ -903,16 +903,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>244.6702423095703</v>
+        <v>209.0552825927734</v>
       </c>
       <c r="G16" t="n">
-        <v>62.50149917602539</v>
+        <v>36.87909698486328</v>
       </c>
       <c r="H16" t="n">
-        <v>-299.6185607910156</v>
+        <v>-280.0388488769531</v>
       </c>
       <c r="I16" t="n">
-        <v>58.14609146118164</v>
+        <v>42.618408203125</v>
       </c>
     </row>
     <row r="17">
@@ -932,16 +932,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>245.7926788330078</v>
+        <v>208.3039093017578</v>
       </c>
       <c r="G17" t="n">
-        <v>66.55830383300781</v>
+        <v>38.87310409545898</v>
       </c>
       <c r="H17" t="n">
-        <v>-285.6888122558594</v>
+        <v>-266.8608093261719</v>
       </c>
       <c r="I17" t="n">
-        <v>57.25329208374023</v>
+        <v>43.36851501464844</v>
       </c>
     </row>
     <row r="18">
@@ -961,16 +961,16 @@
         <v>33.90000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>247.056640625</v>
+        <v>207.778564453125</v>
       </c>
       <c r="G18" t="n">
-        <v>70.61904907226562</v>
+        <v>40.87309646606445</v>
       </c>
       <c r="H18" t="n">
-        <v>-271.5023498535156</v>
+        <v>-253.491455078125</v>
       </c>
       <c r="I18" t="n">
-        <v>56.07639312744141</v>
+        <v>44.08016967773438</v>
       </c>
     </row>
     <row r="19">
@@ -990,16 +990,16 @@
         <v>31.46666666666668</v>
       </c>
       <c r="F19" t="n">
-        <v>248.4412078857422</v>
+        <v>207.4658660888672</v>
       </c>
       <c r="G19" t="n">
-        <v>74.66251373291016</v>
+        <v>42.86598205566406</v>
       </c>
       <c r="H19" t="n">
-        <v>-257.130859375</v>
+        <v>-239.9784088134766</v>
       </c>
       <c r="I19" t="n">
-        <v>54.64595031738281</v>
+        <v>44.74489974975586</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
         <v>29.03333333333335</v>
       </c>
       <c r="F20" t="n">
-        <v>249.9263763427734</v>
+        <v>207.3527069091797</v>
       </c>
       <c r="G20" t="n">
-        <v>78.67010498046875</v>
+        <v>44.84031677246094</v>
       </c>
       <c r="H20" t="n">
-        <v>-242.6524047851562</v>
+        <v>-226.3711700439453</v>
       </c>
       <c r="I20" t="n">
-        <v>52.99772262573242</v>
+        <v>45.35417175292969</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>26.60000000000002</v>
       </c>
       <c r="F21" t="n">
-        <v>251.4932098388672</v>
+        <v>207.4264984130859</v>
       </c>
       <c r="G21" t="n">
-        <v>82.62562561035156</v>
+        <v>46.78641510009766</v>
       </c>
       <c r="H21" t="n">
-        <v>-228.1500701904297</v>
+        <v>-212.7196044921875</v>
       </c>
       <c r="I21" t="n">
-        <v>51.17090225219727</v>
+        <v>45.89972305297852</v>
       </c>
     </row>
     <row r="22">
@@ -1077,16 +1077,16 @@
         <v>24.16666666666669</v>
       </c>
       <c r="F22" t="n">
-        <v>253.1238555908203</v>
+        <v>207.6748504638672</v>
       </c>
       <c r="G22" t="n">
-        <v>86.51519012451172</v>
+        <v>48.696044921875</v>
       </c>
       <c r="H22" t="n">
-        <v>-213.7094879150391</v>
+        <v>-199.0737152099609</v>
       </c>
       <c r="I22" t="n">
-        <v>49.20699691772461</v>
+        <v>46.37420654296875</v>
       </c>
     </row>
     <row r="23">
@@ -1106,16 +1106,16 @@
         <v>21.73333333333335</v>
       </c>
       <c r="F23" t="n">
-        <v>254.8017425537109</v>
+        <v>208.0859375</v>
       </c>
       <c r="G23" t="n">
-        <v>90.32717132568359</v>
+        <v>50.56245803833008</v>
       </c>
       <c r="H23" t="n">
-        <v>-199.4169311523438</v>
+        <v>-185.4826812744141</v>
       </c>
       <c r="I23" t="n">
-        <v>47.15007781982422</v>
+        <v>46.77179336547852</v>
       </c>
     </row>
     <row r="24">
@@ -1135,16 +1135,16 @@
         <v>19.30000000000003</v>
       </c>
       <c r="F24" t="n">
-        <v>256.5114135742188</v>
+        <v>208.6484985351562</v>
       </c>
       <c r="G24" t="n">
-        <v>94.05189514160156</v>
+        <v>52.38030624389648</v>
       </c>
       <c r="H24" t="n">
-        <v>-185.356689453125</v>
+        <v>-171.9942474365234</v>
       </c>
       <c r="I24" t="n">
-        <v>45.0473747253418</v>
+        <v>47.0884895324707</v>
       </c>
     </row>
     <row r="25">
@@ -1164,16 +1164,16 @@
         <v>16.86666666666669</v>
       </c>
       <c r="F25" t="n">
-        <v>258.2386169433594</v>
+        <v>209.3515167236328</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68154907226562</v>
+        <v>54.14540863037109</v>
       </c>
       <c r="H25" t="n">
-        <v>-171.6090087890625</v>
+        <v>-158.6539916992188</v>
       </c>
       <c r="I25" t="n">
-        <v>42.95118713378906</v>
+        <v>47.32281112670898</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1193,16 @@
         <v>14.43333333333337</v>
       </c>
       <c r="F26" t="n">
-        <v>259.9703369140625</v>
+        <v>210.1846466064453</v>
       </c>
       <c r="G26" t="n">
-        <v>101.2101898193359</v>
+        <v>55.85464859008789</v>
       </c>
       <c r="H26" t="n">
-        <v>-158.2480621337891</v>
+        <v>-145.5048675537109</v>
       </c>
       <c r="I26" t="n">
-        <v>40.92046737670898</v>
+        <v>47.47603988647461</v>
       </c>
     </row>
     <row r="27">
@@ -1222,16 +1222,16 @@
         <v>12.00000000000003</v>
       </c>
       <c r="F27" t="n">
-        <v>261.6947326660156</v>
+        <v>211.1380157470703</v>
       </c>
       <c r="G27" t="n">
-        <v>104.6333465576172</v>
+        <v>57.50588607788086</v>
       </c>
       <c r="H27" t="n">
-        <v>-145.3404083251953</v>
+        <v>-132.5870208740234</v>
       </c>
       <c r="I27" t="n">
-        <v>39.02227783203125</v>
+        <v>47.55239868164062</v>
       </c>
     </row>
     <row r="28">
@@ -1251,16 +1251,16 @@
         <v>9.566666666666691</v>
       </c>
       <c r="F28" t="n">
-        <v>263.4012451171875</v>
+        <v>212.2020416259766</v>
       </c>
       <c r="G28" t="n">
-        <v>107.9481582641602</v>
+        <v>59.09786987304688</v>
       </c>
       <c r="H28" t="n">
-        <v>-132.9434967041016</v>
+        <v>-119.9370422363281</v>
       </c>
       <c r="I28" t="n">
-        <v>37.3309440612793</v>
+        <v>47.55896759033203</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1280,16 @@
         <v>7.133333333333354</v>
       </c>
       <c r="F29" t="n">
-        <v>265.0802307128906</v>
+        <v>213.3677520751953</v>
       </c>
       <c r="G29" t="n">
-        <v>111.152961730957</v>
+        <v>60.63001251220703</v>
       </c>
       <c r="H29" t="n">
-        <v>-121.1053085327148</v>
+        <v>-107.5880126953125</v>
       </c>
       <c r="I29" t="n">
-        <v>35.92510604858398</v>
+        <v>47.50613784790039</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1309,16 @@
         <v>4.700000000000017</v>
       </c>
       <c r="F30" t="n">
-        <v>266.7233276367188</v>
+        <v>214.6265716552734</v>
       </c>
       <c r="G30" t="n">
-        <v>114.2473526000977</v>
+        <v>62.10234451293945</v>
       </c>
       <c r="H30" t="n">
-        <v>-109.863655090332</v>
+        <v>-95.56929779052734</v>
       </c>
       <c r="I30" t="n">
-        <v>34.88092041015625</v>
+        <v>47.40671920776367</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_test_9/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_swish.xlsx
@@ -497,16 +497,16 @@
         <v>72.83333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>249.9066162109375</v>
+        <v>378.1628723144531</v>
       </c>
       <c r="G2" t="n">
-        <v>18.13508605957031</v>
+        <v>116.0278854370117</v>
       </c>
       <c r="H2" t="n">
-        <v>-426.314208984375</v>
+        <v>-305.9096374511719</v>
       </c>
       <c r="I2" t="n">
-        <v>31.15562438964844</v>
+        <v>80.66602325439453</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>244.9034423828125</v>
+        <v>379.4847717285156</v>
       </c>
       <c r="G3" t="n">
-        <v>18.62935638427734</v>
+        <v>114.8782119750977</v>
       </c>
       <c r="H3" t="n">
-        <v>-418.7103271484375</v>
+        <v>-285.0656433105469</v>
       </c>
       <c r="I3" t="n">
-        <v>31.90128135681152</v>
+        <v>83.81517791748047</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>240.2174224853516</v>
+        <v>380.3200378417969</v>
       </c>
       <c r="G4" t="n">
-        <v>19.24429893493652</v>
+        <v>113.1527481079102</v>
       </c>
       <c r="H4" t="n">
-        <v>-410.6592712402344</v>
+        <v>-263.2052001953125</v>
       </c>
       <c r="I4" t="n">
-        <v>32.67645645141602</v>
+        <v>86.86823272705078</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>65.53333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>235.8588256835938</v>
+        <v>380.2726745605469</v>
       </c>
       <c r="G5" t="n">
-        <v>19.99260711669922</v>
+        <v>110.9001541137695</v>
       </c>
       <c r="H5" t="n">
-        <v>-402.1548156738281</v>
+        <v>-240.7706298828125</v>
       </c>
       <c r="I5" t="n">
-        <v>33.47665023803711</v>
+        <v>90.02814483642578</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>231.8335723876953</v>
+        <v>379.0972595214844</v>
       </c>
       <c r="G6" t="n">
-        <v>20.88504981994629</v>
+        <v>107.991569519043</v>
       </c>
       <c r="H6" t="n">
-        <v>-393.1928405761719</v>
+        <v>-218.3858795166016</v>
       </c>
       <c r="I6" t="n">
-        <v>34.29679107666016</v>
+        <v>93.38328552246094</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>228.1439361572266</v>
+        <v>376.6637878417969</v>
       </c>
       <c r="G7" t="n">
-        <v>21.92842292785645</v>
+        <v>104.3743667602539</v>
       </c>
       <c r="H7" t="n">
-        <v>-383.771484375</v>
+        <v>-196.7996215820312</v>
       </c>
       <c r="I7" t="n">
-        <v>35.13187789916992</v>
+        <v>96.56291198730469</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>224.7886962890625</v>
+        <v>373.0204772949219</v>
       </c>
       <c r="G8" t="n">
-        <v>23.12422752380371</v>
+        <v>100.3164749145508</v>
       </c>
       <c r="H8" t="n">
-        <v>-373.8922424316406</v>
+        <v>-176.6999359130859</v>
       </c>
       <c r="I8" t="n">
-        <v>35.97693634033203</v>
+        <v>98.78726196289062</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>55.8</v>
       </c>
       <c r="F9" t="n">
-        <v>221.7635498046875</v>
+        <v>368.4723815917969</v>
       </c>
       <c r="G9" t="n">
-        <v>24.46830177307129</v>
+        <v>96.43510437011719</v>
       </c>
       <c r="H9" t="n">
-        <v>-363.5606994628906</v>
+        <v>-158.5342102050781</v>
       </c>
       <c r="I9" t="n">
-        <v>36.82759475708008</v>
+        <v>99.36446380615234</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>219.0618286132812</v>
+        <v>363.4932861328125</v>
       </c>
       <c r="G10" t="n">
-        <v>25.95137405395508</v>
+        <v>93.30240631103516</v>
       </c>
       <c r="H10" t="n">
-        <v>-352.7869567871094</v>
+        <v>-142.4376220703125</v>
       </c>
       <c r="I10" t="n">
-        <v>37.67976379394531</v>
+        <v>98.13854217529297</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>216.6746368408203</v>
+        <v>358.4963684082031</v>
       </c>
       <c r="G11" t="n">
-        <v>27.5600471496582</v>
+        <v>91.05520629882812</v>
       </c>
       <c r="H11" t="n">
-        <v>-341.5857238769531</v>
+        <v>-128.3031463623047</v>
       </c>
       <c r="I11" t="n">
-        <v>38.52991104125977</v>
+        <v>95.49655151367188</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>214.5916290283203</v>
+        <v>353.7026062011719</v>
       </c>
       <c r="G12" t="n">
-        <v>29.27800559997559</v>
+        <v>89.48209381103516</v>
       </c>
       <c r="H12" t="n">
-        <v>-329.97705078125</v>
+        <v>-115.9382019042969</v>
       </c>
       <c r="I12" t="n">
-        <v>39.3746337890625</v>
+        <v>92.01902770996094</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +816,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>212.801025390625</v>
+        <v>349.1651611328125</v>
       </c>
       <c r="G13" t="n">
-        <v>31.08731460571289</v>
+        <v>88.31083679199219</v>
       </c>
       <c r="H13" t="n">
-        <v>-317.9857788085938</v>
+        <v>-105.17626953125</v>
       </c>
       <c r="I13" t="n">
-        <v>40.21033477783203</v>
+        <v>88.16687774658203</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>211.290283203125</v>
+        <v>344.8478698730469</v>
       </c>
       <c r="G14" t="n">
-        <v>32.96934127807617</v>
+        <v>87.31575775146484</v>
       </c>
       <c r="H14" t="n">
-        <v>-305.6419982910156</v>
+        <v>-95.89618682861328</v>
       </c>
       <c r="I14" t="n">
-        <v>41.032958984375</v>
+        <v>84.19420623779297</v>
       </c>
     </row>
     <row r="15">
@@ -874,16 +874,16 @@
         <v>41.2</v>
       </c>
       <c r="F15" t="n">
-        <v>210.0461883544922</v>
+        <v>340.6881408691406</v>
       </c>
       <c r="G15" t="n">
-        <v>34.90576934814453</v>
+        <v>86.24893188476562</v>
       </c>
       <c r="H15" t="n">
-        <v>-292.9800720214844</v>
+        <v>-87.99428558349609</v>
       </c>
       <c r="I15" t="n">
-        <v>41.83759689331055</v>
+        <v>80.20854187011719</v>
       </c>
     </row>
     <row r="16">
@@ -903,16 +903,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>209.0552825927734</v>
+        <v>336.6172485351562</v>
       </c>
       <c r="G16" t="n">
-        <v>36.87909698486328</v>
+        <v>84.78734588623047</v>
       </c>
       <c r="H16" t="n">
-        <v>-280.0388488769531</v>
+        <v>-81.35924530029297</v>
       </c>
       <c r="I16" t="n">
-        <v>42.618408203125</v>
+        <v>76.26067352294922</v>
       </c>
     </row>
     <row r="17">
@@ -932,16 +932,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>208.3039093017578</v>
+        <v>332.5380249023438</v>
       </c>
       <c r="G17" t="n">
-        <v>38.87310409545898</v>
+        <v>82.61265563964844</v>
       </c>
       <c r="H17" t="n">
-        <v>-266.8608093261719</v>
+        <v>-75.86582183837891</v>
       </c>
       <c r="I17" t="n">
-        <v>43.36851501464844</v>
+        <v>72.39968109130859</v>
       </c>
     </row>
     <row r="18">
@@ -961,16 +961,16 @@
         <v>33.90000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>207.778564453125</v>
+        <v>328.3067321777344</v>
       </c>
       <c r="G18" t="n">
-        <v>40.87309646606445</v>
+        <v>79.53693389892578</v>
       </c>
       <c r="H18" t="n">
-        <v>-253.491455078125</v>
+        <v>-71.38321685791016</v>
       </c>
       <c r="I18" t="n">
-        <v>44.08016967773438</v>
+        <v>68.68245697021484</v>
       </c>
     </row>
     <row r="19">
@@ -990,16 +990,16 @@
         <v>31.46666666666668</v>
       </c>
       <c r="F19" t="n">
-        <v>207.4658660888672</v>
+        <v>323.7638244628906</v>
       </c>
       <c r="G19" t="n">
-        <v>42.86598205566406</v>
+        <v>75.53288269042969</v>
       </c>
       <c r="H19" t="n">
-        <v>-239.9784088134766</v>
+        <v>-67.78701782226562</v>
       </c>
       <c r="I19" t="n">
-        <v>44.74489974975586</v>
+        <v>65.16120910644531</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
         <v>29.03333333333335</v>
       </c>
       <c r="F20" t="n">
-        <v>207.3527069091797</v>
+        <v>318.7887573242188</v>
       </c>
       <c r="G20" t="n">
-        <v>44.84031677246094</v>
+        <v>70.67247772216797</v>
       </c>
       <c r="H20" t="n">
-        <v>-226.3711700439453</v>
+        <v>-64.96743774414062</v>
       </c>
       <c r="I20" t="n">
-        <v>45.35417175292969</v>
+        <v>61.87035369873047</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>26.60000000000002</v>
       </c>
       <c r="F21" t="n">
-        <v>207.4264984130859</v>
+        <v>313.3361511230469</v>
       </c>
       <c r="G21" t="n">
-        <v>46.78641510009766</v>
+        <v>65.08258056640625</v>
       </c>
       <c r="H21" t="n">
-        <v>-212.7196044921875</v>
+        <v>-62.83300399780273</v>
       </c>
       <c r="I21" t="n">
-        <v>45.89972305297852</v>
+        <v>58.82397079467773</v>
       </c>
     </row>
     <row r="22">
@@ -1077,16 +1077,16 @@
         <v>24.16666666666669</v>
       </c>
       <c r="F22" t="n">
-        <v>207.6748504638672</v>
+        <v>307.4426574707031</v>
       </c>
       <c r="G22" t="n">
-        <v>48.696044921875</v>
+        <v>58.97662734985352</v>
       </c>
       <c r="H22" t="n">
-        <v>-199.0737152099609</v>
+        <v>-61.31052780151367</v>
       </c>
       <c r="I22" t="n">
-        <v>46.37420654296875</v>
+        <v>56.02109146118164</v>
       </c>
     </row>
     <row r="23">
@@ -1106,16 +1106,16 @@
         <v>21.73333333333335</v>
       </c>
       <c r="F23" t="n">
-        <v>208.0859375</v>
+        <v>301.2193603515625</v>
       </c>
       <c r="G23" t="n">
-        <v>50.56245803833008</v>
+        <v>52.73370361328125</v>
       </c>
       <c r="H23" t="n">
-        <v>-185.4826812744141</v>
+        <v>-60.34202575683594</v>
       </c>
       <c r="I23" t="n">
-        <v>46.77179336547852</v>
+        <v>53.45376968383789</v>
       </c>
     </row>
     <row r="24">
@@ -1135,16 +1135,16 @@
         <v>19.30000000000003</v>
       </c>
       <c r="F24" t="n">
-        <v>208.6484985351562</v>
+        <v>294.82861328125</v>
       </c>
       <c r="G24" t="n">
-        <v>52.38030624389648</v>
+        <v>46.93301010131836</v>
       </c>
       <c r="H24" t="n">
-        <v>-171.9942474365234</v>
+        <v>-59.88045120239258</v>
       </c>
       <c r="I24" t="n">
-        <v>47.0884895324707</v>
+        <v>51.11454391479492</v>
       </c>
     </row>
     <row r="25">
@@ -1164,16 +1164,16 @@
         <v>16.86666666666669</v>
       </c>
       <c r="F25" t="n">
-        <v>209.3515167236328</v>
+        <v>288.4414978027344</v>
       </c>
       <c r="G25" t="n">
-        <v>54.14540863037109</v>
+        <v>42.2601432800293</v>
       </c>
       <c r="H25" t="n">
-        <v>-158.6539916992188</v>
+        <v>-59.88446044921875</v>
       </c>
       <c r="I25" t="n">
-        <v>47.32281112670898</v>
+        <v>49.00072479248047</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1193,16 @@
         <v>14.43333333333337</v>
       </c>
       <c r="F26" t="n">
-        <v>210.1846466064453</v>
+        <v>282.1974792480469</v>
       </c>
       <c r="G26" t="n">
-        <v>55.85464859008789</v>
+        <v>39.29439544677734</v>
       </c>
       <c r="H26" t="n">
-        <v>-145.5048675537109</v>
+        <v>-60.31411361694336</v>
       </c>
       <c r="I26" t="n">
-        <v>47.47603988647461</v>
+        <v>47.11555099487305</v>
       </c>
     </row>
     <row r="27">
@@ -1222,16 +1222,16 @@
         <v>12.00000000000003</v>
       </c>
       <c r="F27" t="n">
-        <v>211.1380157470703</v>
+        <v>276.1947937011719</v>
       </c>
       <c r="G27" t="n">
-        <v>57.50588607788086</v>
+        <v>38.26470947265625</v>
       </c>
       <c r="H27" t="n">
-        <v>-132.5870208740234</v>
+        <v>-61.1281623840332</v>
       </c>
       <c r="I27" t="n">
-        <v>47.55239868164062</v>
+        <v>45.46711349487305</v>
       </c>
     </row>
     <row r="28">
@@ -1251,16 +1251,16 @@
         <v>9.566666666666691</v>
       </c>
       <c r="F28" t="n">
-        <v>212.2020416259766</v>
+        <v>270.5068359375</v>
       </c>
       <c r="G28" t="n">
-        <v>59.09786987304688</v>
+        <v>38.91043472290039</v>
       </c>
       <c r="H28" t="n">
-        <v>-119.9370422363281</v>
+        <v>-62.28287124633789</v>
       </c>
       <c r="I28" t="n">
-        <v>47.55896759033203</v>
+        <v>44.06606674194336</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1280,16 @@
         <v>7.133333333333354</v>
       </c>
       <c r="F29" t="n">
-        <v>213.3677520751953</v>
+        <v>265.1885681152344</v>
       </c>
       <c r="G29" t="n">
-        <v>60.63001251220703</v>
+        <v>40.60055541992188</v>
       </c>
       <c r="H29" t="n">
-        <v>-107.5880126953125</v>
+        <v>-63.73193359375</v>
       </c>
       <c r="I29" t="n">
-        <v>47.50613784790039</v>
+        <v>42.9229850769043</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1309,16 @@
         <v>4.700000000000017</v>
       </c>
       <c r="F30" t="n">
-        <v>214.6265716552734</v>
+        <v>260.2644348144531</v>
       </c>
       <c r="G30" t="n">
-        <v>62.10234451293945</v>
+        <v>42.64573287963867</v>
       </c>
       <c r="H30" t="n">
-        <v>-95.56929779052734</v>
+        <v>-65.42728424072266</v>
       </c>
       <c r="I30" t="n">
-        <v>47.40671920776367</v>
+        <v>42.04578018188477</v>
       </c>
     </row>
   </sheetData>
